--- a/data/uebersichtslisteBombenfunde2017.xlsx
+++ b/data/uebersichtslisteBombenfunde2017.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C204137D-B827-48CB-AD40-B26CC3D7CF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80AC0123-1864-428E-9140-0E7E4DDA1116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="uebersichtslisteBombenfunde2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -452,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,12 +458,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -807,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +820,7 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,10 +839,10 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -860,10 +862,10 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>363984.44</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>5644572.0800000001</v>
       </c>
     </row>
@@ -883,10 +885,10 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>364027.4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>5644526.3399999999</v>
       </c>
     </row>
@@ -906,10 +908,10 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>364038.35</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>5644513.3799999999</v>
       </c>
     </row>
@@ -929,10 +931,10 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>364067.93</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>5644539.3600000003</v>
       </c>
     </row>
@@ -952,10 +954,10 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>339307.64</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>5704706.2400000002</v>
       </c>
     </row>
@@ -975,10 +977,10 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>360191.12</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>5641185.5899999999</v>
       </c>
     </row>
@@ -998,10 +1000,10 @@
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>335655.6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>5704722.5700000003</v>
       </c>
     </row>
@@ -1021,10 +1023,10 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>344663.16</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>5679958.46</v>
       </c>
     </row>
@@ -1044,10 +1046,10 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>335689.73</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>5704688.1299999999</v>
       </c>
     </row>
@@ -1067,10 +1069,10 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>335709.04</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>5704643.6699999999</v>
       </c>
     </row>
@@ -1090,10 +1092,10 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>335652.9</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <v>5704615.6500000004</v>
       </c>
     </row>
@@ -1113,10 +1115,10 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>335676</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>5704630.9299999997</v>
       </c>
     </row>
@@ -1136,10 +1138,10 @@
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>362426.81</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>5699576.5899999999</v>
       </c>
     </row>
@@ -1159,10 +1161,10 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>358246.8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>5643267.2699999996</v>
       </c>
     </row>
@@ -1182,10 +1184,10 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>359998.62</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>5644662.2999999998</v>
       </c>
     </row>
@@ -1205,10 +1207,10 @@
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>346091.87</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>5647486.1699999999</v>
       </c>
     </row>
@@ -1228,10 +1230,10 @@
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>354680.35</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>5649331.4500000002</v>
       </c>
     </row>
@@ -1251,10 +1253,10 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>352919.17</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>5707944.4299999997</v>
       </c>
     </row>
@@ -1274,10 +1276,10 @@
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>350560.97</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>5707790.3300000001</v>
       </c>
     </row>
@@ -1297,10 +1299,10 @@
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>359306.7</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>5637118.3200000003</v>
       </c>
     </row>
@@ -1320,10 +1322,10 @@
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>335685.45</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="5">
         <v>5704796.2300000004</v>
       </c>
     </row>
@@ -1343,10 +1345,10 @@
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>335642.42</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="5">
         <v>5704797.21</v>
       </c>
     </row>
@@ -1366,10 +1368,10 @@
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>335549.65</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="5">
         <v>5704890.4500000002</v>
       </c>
     </row>
@@ -1389,10 +1391,10 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>331461.2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="5">
         <v>5709888.3200000003</v>
       </c>
     </row>
@@ -1412,10 +1414,10 @@
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>346641.08</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <v>5682748.5199999996</v>
       </c>
     </row>
@@ -1435,11 +1437,11 @@
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
+        <v>344069.78</v>
+      </c>
+      <c r="G27" s="5">
         <v>5632645.6600000001</v>
-      </c>
-      <c r="G27" s="3">
-        <v>344069.78</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1458,10 +1460,10 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>357710.39</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <v>5701885.4000000004</v>
       </c>
     </row>
@@ -1481,10 +1483,10 @@
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>343963.84</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <v>5695968.7599999998</v>
       </c>
     </row>
@@ -1504,10 +1506,10 @@
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>335662.81</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <v>5705060.5</v>
       </c>
     </row>
@@ -1527,10 +1529,10 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>335627.63</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="5">
         <v>5705060.5</v>
       </c>
     </row>
@@ -1550,10 +1552,10 @@
       <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>368671.27</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <v>5668770.5</v>
       </c>
     </row>
@@ -1573,10 +1575,10 @@
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <v>358012.14</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <v>5637494.3600000003</v>
       </c>
     </row>
@@ -1596,10 +1598,10 @@
       <c r="E34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="5">
         <v>0</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1619,10 +1621,10 @@
       <c r="E35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="5">
         <v>0</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1642,10 +1644,10 @@
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
         <v>0</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1665,11 +1667,11 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="5">
+        <v>352050.39</v>
+      </c>
+      <c r="G37" s="5">
         <v>5650206.7699999996</v>
-      </c>
-      <c r="G37" s="3">
-        <v>352050.39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,10 +1690,10 @@
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="5">
         <v>333276.28999999998</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="5">
         <v>5688923.2000000002</v>
       </c>
     </row>
@@ -1711,10 +1713,10 @@
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="5">
         <v>322686.46999999997</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <v>5631020.2300000004</v>
       </c>
     </row>
@@ -1734,10 +1736,10 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="5">
         <v>330670.28000000003</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="5">
         <v>5690747.2300000004</v>
       </c>
     </row>
@@ -1757,11 +1759,11 @@
       <c r="E41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="5">
+        <v>352041.83</v>
+      </c>
+      <c r="G41" s="5">
         <v>5650205.21</v>
-      </c>
-      <c r="G41" s="3">
-        <v>352041.83</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
@@ -1780,11 +1782,11 @@
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="5">
+        <v>352018.16</v>
+      </c>
+      <c r="G42" s="5">
         <v>5650247.8899999997</v>
-      </c>
-      <c r="G42" s="3">
-        <v>352018.16</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="36.75" x14ac:dyDescent="0.25">
@@ -1803,10 +1805,10 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="5">
         <v>311388.44</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="5">
         <v>5726343.1799999997</v>
       </c>
     </row>
@@ -1826,11 +1828,11 @@
       <c r="E44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="5">
+        <v>354046.68</v>
+      </c>
+      <c r="G44" s="5">
         <v>5649904.3200000003</v>
-      </c>
-      <c r="G44" s="3">
-        <v>354046.68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,10 +1851,10 @@
       <c r="E45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="5">
         <v>301500.36</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="5">
         <v>5740420.6100000003</v>
       </c>
     </row>
@@ -1872,10 +1874,10 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>351876.02</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="5">
         <v>5663036.2599999998</v>
       </c>
     </row>
@@ -1895,10 +1897,10 @@
       <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="5">
         <v>356138.42</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="5">
         <v>5641414.8700000001</v>
       </c>
     </row>
@@ -1918,10 +1920,10 @@
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="5">
         <v>336044.99</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="5">
         <v>5724773.1399999997</v>
       </c>
     </row>
@@ -1941,10 +1943,10 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="5">
         <v>359778.97</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>5645131.5</v>
       </c>
     </row>
@@ -1964,10 +1966,10 @@
       <c r="E50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="5">
         <v>342529.17</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="5">
         <v>5683277.5899999999</v>
       </c>
     </row>
@@ -1987,10 +1989,10 @@
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2010,15 +2012,15 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="5">
         <v>330590.30369999999</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="5">
         <v>5689377.6973999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2033,10 +2035,10 @@
       <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="5">
         <v>0</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2056,15 +2058,15 @@
       <c r="E54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="5">
         <v>363347.64</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="5">
         <v>5640527.5300000003</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2079,10 +2081,10 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="5">
         <v>344813.00189999997</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="5">
         <v>5696722.9999000002</v>
       </c>
     </row>
@@ -2102,10 +2104,10 @@
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="5">
         <v>339462.34</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="5">
         <v>5699116.6399999997</v>
       </c>
     </row>
@@ -2125,10 +2127,10 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="5">
         <v>363014.29</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="5">
         <v>5704742.6699999999</v>
       </c>
     </row>
@@ -2148,11 +2150,11 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="5">
+        <v>3525051.1</v>
+      </c>
+      <c r="G58" s="5">
         <v>5650242.6600000001</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3525051.1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
@@ -2171,10 +2173,10 @@
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="5">
         <v>357657.09</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="5">
         <v>5646814.3300000001</v>
       </c>
     </row>
@@ -2194,10 +2196,10 @@
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="5">
         <v>351965.15</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="5">
         <v>5642948.1500000004</v>
       </c>
     </row>
@@ -2217,10 +2219,10 @@
       <c r="E61" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="5">
         <v>370139.3</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="5">
         <v>5629036.7000000002</v>
       </c>
     </row>
@@ -2240,10 +2242,10 @@
       <c r="E62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="5">
         <v>346879.27</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="5">
         <v>5709868.0800000001</v>
       </c>
     </row>
@@ -2263,10 +2265,10 @@
       <c r="E63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="5">
         <v>331485.78000000003</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="5">
         <v>5709846.1600000001</v>
       </c>
     </row>
@@ -2286,10 +2288,10 @@
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="5">
         <v>308430.69</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="5">
         <v>5717759.7300000004</v>
       </c>
     </row>
@@ -2309,10 +2311,10 @@
       <c r="E65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="5">
         <v>355315.98</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="5">
         <v>5652497.0800000001</v>
       </c>
     </row>
@@ -2332,10 +2334,10 @@
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="5">
         <v>308408.15000000002</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="5">
         <v>5717761.2400000002</v>
       </c>
     </row>
@@ -2355,10 +2357,10 @@
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="5">
         <v>338547.06</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="5">
         <v>5678036.2800000003</v>
       </c>
     </row>
@@ -2378,10 +2380,10 @@
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="5">
         <v>359310.39549999998</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="5">
         <v>5704406.7949000001</v>
       </c>
     </row>
@@ -2401,10 +2403,10 @@
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="5">
         <v>353112.95</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="5">
         <v>5662686.0700000003</v>
       </c>
     </row>
@@ -2424,10 +2426,10 @@
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="5">
         <v>338050.53</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="5">
         <v>5675471.0700000003</v>
       </c>
     </row>
@@ -2447,10 +2449,10 @@
       <c r="E71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="5">
         <v>347137</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="5">
         <v>5709869</v>
       </c>
     </row>
@@ -2470,10 +2472,10 @@
       <c r="E72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="5">
         <v>0</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2493,10 +2495,10 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="5">
         <v>360203.79</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="5">
         <v>5706584.7800000003</v>
       </c>
     </row>
@@ -2516,10 +2518,10 @@
       <c r="E74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="5">
         <v>0</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2539,10 +2541,10 @@
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="5">
         <v>353286.69</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="5">
         <v>5704985.5300000003</v>
       </c>
     </row>
@@ -2562,10 +2564,10 @@
       <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="5">
         <v>353329.71</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="5">
         <v>5704998.3700000001</v>
       </c>
     </row>
@@ -2585,10 +2587,10 @@
       <c r="E77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="5">
         <v>360193.29</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="5">
         <v>5697695.1399999997</v>
       </c>
     </row>
@@ -2608,10 +2610,10 @@
       <c r="E78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="5">
         <v>359366.48</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="5">
         <v>5696738.2699999996</v>
       </c>
     </row>
@@ -2631,10 +2633,10 @@
       <c r="E79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="5">
         <v>330954.25</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="5">
         <v>5663388.7999999998</v>
       </c>
     </row>
@@ -2654,10 +2656,10 @@
       <c r="E80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="5">
         <v>330950.75</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="5">
         <v>5663421.4500000002</v>
       </c>
     </row>
@@ -2677,10 +2679,10 @@
       <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="5">
         <v>330937.75</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="5">
         <v>5663454.3099999996</v>
       </c>
     </row>
@@ -2700,10 +2702,10 @@
       <c r="E82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="5">
         <v>364177.08</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="5">
         <v>5649939.9100000001</v>
       </c>
     </row>
@@ -2723,10 +2725,10 @@
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="5">
         <v>345562.98019999999</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="5">
         <v>5679977.4391000001</v>
       </c>
     </row>
@@ -2746,10 +2748,10 @@
       <c r="E84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="5">
         <v>332587</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="5">
         <v>5688807</v>
       </c>
     </row>
@@ -2769,10 +2771,10 @@
       <c r="E85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="5">
         <v>360095.35</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="5">
         <v>5655869.8399999999</v>
       </c>
     </row>
@@ -2792,10 +2794,10 @@
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="5">
         <v>362375.25</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="5">
         <v>5647992.2999999998</v>
       </c>
     </row>
@@ -2815,10 +2817,10 @@
       <c r="E87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="5">
         <v>345541.1</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="5">
         <v>5631221.4000000004</v>
       </c>
     </row>
@@ -2838,10 +2840,10 @@
       <c r="E88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="5">
         <v>356499.42</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="5">
         <v>5706946.7400000002</v>
       </c>
     </row>
@@ -2861,10 +2863,10 @@
       <c r="E89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="5">
         <v>346894.44699999999</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="5">
         <v>57108508.689999998</v>
       </c>
     </row>
@@ -2884,10 +2886,10 @@
       <c r="E90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="5">
         <v>347022.7</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="5">
         <v>5710158.9900000002</v>
       </c>
     </row>
@@ -2907,10 +2909,10 @@
       <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="5">
         <v>367859.34</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="5">
         <v>5636326.4100000001</v>
       </c>
     </row>
@@ -2930,10 +2932,10 @@
       <c r="E92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="5">
         <v>335981.55</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="5">
         <v>5724839.2000000002</v>
       </c>
     </row>
@@ -2953,10 +2955,10 @@
       <c r="E93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="5">
         <v>338754.68</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="5">
         <v>5718041.79</v>
       </c>
     </row>
@@ -2976,10 +2978,10 @@
       <c r="E94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="5">
         <v>322913.39</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="5">
         <v>5631108.7599999998</v>
       </c>
     </row>
@@ -2999,10 +3001,10 @@
       <c r="E95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="5">
         <v>347011.37</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="5">
         <v>5709851.6799999997</v>
       </c>
     </row>
@@ -3022,10 +3024,10 @@
       <c r="E96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="5">
         <v>346999.81</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="5">
         <v>5710285.4299999997</v>
       </c>
     </row>
@@ -3045,10 +3047,10 @@
       <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="5">
         <v>363529.58</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="5">
         <v>5679490.0700000003</v>
       </c>
     </row>
@@ -3068,10 +3070,10 @@
       <c r="E98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="5">
         <v>344489.09</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="5">
         <v>5701070.5999999996</v>
       </c>
     </row>
@@ -3091,10 +3093,10 @@
       <c r="E99" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="5">
         <v>318810.59000000003</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="5">
         <v>5630055.1399999997</v>
       </c>
     </row>
@@ -3114,10 +3116,10 @@
       <c r="E100" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="5">
         <v>318831.87</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="5">
         <v>5630229.4800000004</v>
       </c>
     </row>
@@ -3137,10 +3139,10 @@
       <c r="E101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="5">
         <v>345175.52</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="5">
         <v>5701874.8899999997</v>
       </c>
     </row>
@@ -3160,10 +3162,10 @@
       <c r="E102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="5">
         <v>361626.65</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="5">
         <v>5700802.1900000004</v>
       </c>
     </row>
@@ -3183,10 +3185,10 @@
       <c r="E103" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="5">
         <v>359682.92</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="5">
         <v>5703742.6200000001</v>
       </c>
     </row>
@@ -3206,10 +3208,10 @@
       <c r="E104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="5">
         <v>308440.84999999998</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="5">
         <v>5717758.8600000003</v>
       </c>
     </row>
@@ -3229,10 +3231,10 @@
       <c r="E105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="5">
         <v>335134.06</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="5">
         <v>5725330.7300000004</v>
       </c>
     </row>
@@ -3252,10 +3254,10 @@
       <c r="E106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="5">
         <v>364862.28</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="5">
         <v>5674926.6799999997</v>
       </c>
     </row>
@@ -3275,10 +3277,10 @@
       <c r="E107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="5">
         <v>360115.42</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="5">
         <v>5703869.3600000003</v>
       </c>
     </row>
@@ -3298,10 +3300,10 @@
       <c r="E108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="5">
         <v>351451.37</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="5">
         <v>5635061.1600000001</v>
       </c>
     </row>
@@ -3321,10 +3323,10 @@
       <c r="E109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="5">
         <v>338335.18</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="5">
         <v>5696714.71</v>
       </c>
     </row>
@@ -3344,10 +3346,10 @@
       <c r="E110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="5">
         <v>361535.21</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="5">
         <v>5640943.5499999998</v>
       </c>
     </row>
@@ -3367,10 +3369,10 @@
       <c r="E111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="5">
         <v>308481.19</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="5">
         <v>5717475.0099999998</v>
       </c>
     </row>
@@ -3390,10 +3392,10 @@
       <c r="E112" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="5">
         <v>0</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3401,28 +3403,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>